--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/103.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/103.xlsx
@@ -479,13 +479,13 @@
         <v>-6.74825247578482</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.69289230606487</v>
+        <v>-10.69273519843076</v>
       </c>
       <c r="F2" t="n">
-        <v>-4.040156447767339</v>
+        <v>-3.979159408827738</v>
       </c>
       <c r="G2" t="n">
-        <v>-6.764991976701578</v>
+        <v>-6.844396793436646</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-6.246810203468239</v>
       </c>
       <c r="E3" t="n">
-        <v>-11.05039072746104</v>
+        <v>-11.05145120399122</v>
       </c>
       <c r="F3" t="n">
-        <v>-4.087563676357229</v>
+        <v>-4.014168226626513</v>
       </c>
       <c r="G3" t="n">
-        <v>-6.775557465094851</v>
+        <v>-6.843349409209308</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-5.604514765257279</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.88478937216992</v>
+        <v>-11.88345395728007</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.835877246527887</v>
+        <v>-3.771895162540372</v>
       </c>
       <c r="G4" t="n">
-        <v>-6.608748434588419</v>
+        <v>-6.676985516999495</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-4.894176121448589</v>
       </c>
       <c r="E5" t="n">
-        <v>-12.73478094956331</v>
+        <v>-12.74156276243532</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.93176527254069</v>
+        <v>-3.85038351807652</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.949135216170455</v>
+        <v>-7.026811848930415</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-4.126436011891536</v>
       </c>
       <c r="E6" t="n">
-        <v>-13.44633451670827</v>
+        <v>-13.46215001854108</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.685158656213937</v>
+        <v>-3.606107331655595</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.514091085042739</v>
+        <v>-6.580626168084391</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-3.337432946468761</v>
       </c>
       <c r="E7" t="n">
-        <v>-14.13674401476386</v>
+        <v>-14.15356762391547</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.743144465499942</v>
+        <v>-3.6548368828325</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.686595267285321</v>
+        <v>-6.752056781493952</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-2.548324083536836</v>
       </c>
       <c r="E8" t="n">
-        <v>-14.74981727993336</v>
+        <v>-14.77568767034862</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.562955101489266</v>
+        <v>-3.4841787152906</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.38090308823386</v>
+        <v>-6.425416917895729</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-1.777970268977582</v>
       </c>
       <c r="E9" t="n">
-        <v>-15.66232460339599</v>
+        <v>-15.6899100854835</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.40809934347733</v>
+        <v>-3.325748758602873</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.175380118224444</v>
+        <v>-6.193565326871601</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-1.0238660871234</v>
       </c>
       <c r="E10" t="n">
-        <v>-16.31391542352585</v>
+        <v>-16.34202459772704</v>
       </c>
       <c r="F10" t="n">
-        <v>-3.399550069721683</v>
+        <v>-3.312080394436111</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.739393341292124</v>
+        <v>-5.762985671012914</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.2829002033972102</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.84372164262198</v>
+        <v>-16.89023859461863</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.2508607863482</v>
+        <v>-3.170107462420434</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.505996858532674</v>
+        <v>-5.532574233301378</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.4552521972349035</v>
       </c>
       <c r="E12" t="n">
-        <v>-17.46987411833037</v>
+        <v>-17.51008058035731</v>
       </c>
       <c r="F12" t="n">
-        <v>-3.367343004731037</v>
+        <v>-3.300663906358126</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.909066402767015</v>
+        <v>-4.937424330722194</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>1.207974521376882</v>
       </c>
       <c r="E13" t="n">
-        <v>-18.36593750942379</v>
+        <v>-18.40141765012487</v>
       </c>
       <c r="F13" t="n">
-        <v>-3.146227102037125</v>
+        <v>-3.077793635083423</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.264021734058013</v>
+        <v>-4.288805463337401</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>1.989112513948754</v>
       </c>
       <c r="E14" t="n">
-        <v>-19.0998134529139</v>
+        <v>-19.12135029108854</v>
       </c>
       <c r="F14" t="n">
-        <v>-3.029705606745763</v>
+        <v>-2.96043423241019</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.697949836090304</v>
+        <v>-3.743458680768143</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>2.806916176463515</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.85733409533617</v>
+        <v>-19.89425438934984</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.957108787488392</v>
+        <v>-2.884315583688395</v>
       </c>
       <c r="G15" t="n">
-        <v>-3.101097934141695</v>
+        <v>-3.145651040712089</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>3.660304706788544</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.71131882509628</v>
+        <v>-20.76294177520121</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.953220373544399</v>
+        <v>-2.869442727660195</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.4887185610228</v>
+        <v>-2.555947536115064</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>4.533691141558887</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.42388049956006</v>
+        <v>-21.47978463269423</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.873972664443432</v>
+        <v>-2.790234295467752</v>
       </c>
       <c r="G17" t="n">
-        <v>-2.068547285923286</v>
+        <v>-2.134663415274002</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>5.393772224190956</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.3297107485734</v>
+        <v>-22.39145404877499</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.780113945371097</v>
+        <v>-2.691740901189446</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.845807937677</v>
+        <v>-1.89859610273484</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>6.198957393365124</v>
       </c>
       <c r="E19" t="n">
-        <v>-23.17195168268448</v>
+        <v>-23.23585521285495</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.790718710672896</v>
+        <v>-2.710043940562179</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.369104098906912</v>
+        <v>-1.442303164095003</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>6.909869444056649</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.9733184473237</v>
+        <v>-24.03241710235125</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.567180731953265</v>
+        <v>-2.489818314461505</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.136925200311742</v>
+        <v>-1.197241439503574</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>7.485729834690582</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.4220702195267</v>
+        <v>-24.48839582572288</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.4060406685773</v>
+        <v>-2.331912049887447</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.7463294373316866</v>
+        <v>-0.8069729840945618</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>7.892552177077311</v>
       </c>
       <c r="E22" t="n">
-        <v>-25.08486805088908</v>
+        <v>-25.15072233418296</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.192911070616842</v>
+        <v>-2.129505047954362</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.6063465353479515</v>
+        <v>-0.638776169486907</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>8.111174444516882</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.65497237813204</v>
+        <v>-25.71854860073146</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.18735993421195</v>
+        <v>-2.125289326439327</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.2266435683322121</v>
+        <v>-0.2768394574273898</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>8.137581609905288</v>
       </c>
       <c r="E24" t="n">
-        <v>-26.09349906181566</v>
+        <v>-26.1564861307872</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.13009420158224</v>
+        <v>-2.077751174821019</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.2711181210855555</v>
+        <v>-0.3127778287279279</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>7.983140429340239</v>
       </c>
       <c r="E25" t="n">
-        <v>-26.36928842117662</v>
+        <v>-26.43304793601582</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.781171238547399</v>
+        <v>-1.731931087559667</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.2533387738264915</v>
+        <v>-0.2895520834867058</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>7.672058375014658</v>
       </c>
       <c r="E26" t="n">
-        <v>-26.2855369598981</v>
+        <v>-26.35357765776655</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.678435938148374</v>
+        <v>-1.638465137572584</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.4128946685586071</v>
+        <v>-0.4484402707738934</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>7.240508989884376</v>
       </c>
       <c r="E27" t="n">
-        <v>-26.20153674486558</v>
+        <v>-26.29034183504101</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.751543357216572</v>
+        <v>-1.714374309448912</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.3753066671000115</v>
+        <v>-0.3952855212364855</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>6.727625982796956</v>
       </c>
       <c r="E28" t="n">
-        <v>-26.37195925095633</v>
+        <v>-26.44612714655471</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.468788892743814</v>
+        <v>-1.431069968256802</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.7109540350533428</v>
+        <v>-0.7278561980220111</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>6.16685430272594</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.28391351434572</v>
+        <v>-26.37499666521561</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.377064219034682</v>
+        <v>-1.348470629628352</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.7850957460460375</v>
+        <v>-0.7963944033984471</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>5.584490862758661</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.09867052143814</v>
+        <v>-26.18136150618648</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.456704697220901</v>
+        <v>-1.428320584660039</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.9277232932038013</v>
+        <v>-0.9349240597667506</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>4.997056140252582</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.76231616913135</v>
+        <v>-25.84123657066128</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.368986268181337</v>
+        <v>-1.342579093349575</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.411902836896515</v>
+        <v>-1.413945236139824</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>4.408296035153006</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.77677007146862</v>
+        <v>-25.86561443855257</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.20009556152307</v>
+        <v>-1.178440892622856</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.702931636765243</v>
+        <v>-1.715199124527941</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>3.812494841760066</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.42714012408032</v>
+        <v>-25.51157238510662</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.169629772810374</v>
+        <v>-1.15260977911613</v>
       </c>
       <c r="G33" t="n">
-        <v>-2.203162343741913</v>
+        <v>-2.219959768287848</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>3.206208939971648</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.88155768005992</v>
+        <v>-24.94997805471078</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.189346780890013</v>
+        <v>-1.176791262464798</v>
       </c>
       <c r="G34" t="n">
-        <v>-2.309170719851369</v>
+        <v>-2.319526731399174</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>2.588505929895476</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.46551048035554</v>
+        <v>-24.54251940567058</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.356509303573172</v>
+        <v>-1.345315384643496</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.522156302480569</v>
+        <v>-2.521266025887332</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.96164774803157</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.81755932041568</v>
+        <v>-23.8877864328587</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.355920149945294</v>
+        <v>-1.344425108050258</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.717035230279661</v>
+        <v>-2.700853143967288</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.340779882362916</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.05884727843481</v>
+        <v>-23.12368036210704</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.335443788300835</v>
+        <v>-1.32850486779472</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.845614736488253</v>
+        <v>-2.845575459579728</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.7460993712447481</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.67788745034627</v>
+        <v>-22.73390941420601</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.41202066762209</v>
+        <v>-1.402437101941947</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.155457175540542</v>
+        <v>-3.163430387971153</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.1962918661875329</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.03556598062834</v>
+        <v>-22.1131771518741</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.325349622809864</v>
+        <v>-1.307229875676915</v>
       </c>
       <c r="G39" t="n">
-        <v>-3.383721475586036</v>
+        <v>-3.394103671739525</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-0.2913254278397613</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.54773368444279</v>
+        <v>-21.6248604404834</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.493913021897087</v>
+        <v>-1.473842521640721</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.614905359165235</v>
+        <v>-3.625418478347141</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-0.7096779911998733</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.10036969634101</v>
+        <v>-21.13659609830407</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.408734499608817</v>
+        <v>-1.378438910833063</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.61858429626376</v>
+        <v>-3.626387308757429</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-1.06161358352156</v>
       </c>
       <c r="E42" t="n">
-        <v>-20.26836694305216</v>
+        <v>-20.33563519505295</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.135367216273577</v>
+        <v>-1.10148433651919</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.727551532815446</v>
+        <v>-3.742385111935122</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-1.355769747311067</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.45244153765295</v>
+        <v>-19.49499152188856</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.143144044161562</v>
+        <v>-1.110321640937355</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.867468973284973</v>
+        <v>-3.879252045842526</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-1.602343524633694</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.02678458766275</v>
+        <v>-19.07221487852354</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.164484497793576</v>
+        <v>-1.127079788574764</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.092368551500143</v>
+        <v>-4.108642283932409</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-1.812113464013931</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.54189805961659</v>
+        <v>-18.57393492467029</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.153356040378108</v>
+        <v>-1.117758068951455</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.206232309314634</v>
+        <v>-4.216640690073807</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-1.996625262116537</v>
       </c>
       <c r="E46" t="n">
-        <v>-18.09089441132481</v>
+        <v>-18.1072074206656</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.117155823020736</v>
+        <v>-1.082317205158903</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.346149749784161</v>
+        <v>-4.341907843663442</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-2.163699448001331</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.32652649451631</v>
+        <v>-17.35413816120951</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.210857434458969</v>
+        <v>-1.170009449592784</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.650231575586091</v>
+        <v>-4.657366880634831</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-2.319851109932972</v>
       </c>
       <c r="E48" t="n">
-        <v>-16.48001746967883</v>
+        <v>-16.51375633410196</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.136008739112821</v>
+        <v>-1.097831584026348</v>
       </c>
       <c r="G48" t="n">
-        <v>-4.60342659292692</v>
+        <v>-4.598516979361273</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-2.472822962284641</v>
       </c>
       <c r="E49" t="n">
-        <v>-15.85362933251929</v>
+        <v>-15.86314743668522</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.08570811159491</v>
+        <v>-1.032579546663185</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.831101739344536</v>
+        <v>-4.835684045339141</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-2.629111324899368</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.96675673802076</v>
+        <v>-14.99338648200084</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.042294035371746</v>
+        <v>-0.997177959779158</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.954457416719279</v>
+        <v>-4.954051555331186</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-2.793487811122142</v>
       </c>
       <c r="E51" t="n">
-        <v>-14.17422727779972</v>
+        <v>-14.19369553212537</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.042686804456998</v>
+        <v>-0.999141805205417</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.136990302938624</v>
+        <v>-5.141009639911034</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-2.968658627070479</v>
       </c>
       <c r="E52" t="n">
-        <v>-13.45356146787691</v>
+        <v>-13.49821931287003</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9895713318281152</v>
+        <v>-0.942740164563261</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.035629694337981</v>
+        <v>-5.045645306011902</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-3.154843916513433</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.75627851082942</v>
+        <v>-12.79543758862902</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9864160868432592</v>
+        <v>-0.933182783488801</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.116225910631647</v>
+        <v>-5.124303861484992</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-3.346509942262417</v>
       </c>
       <c r="E54" t="n">
-        <v>-12.39275763012605</v>
+        <v>-12.42635247921792</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.183415967702711</v>
+        <v>-1.13137406390685</v>
       </c>
       <c r="G54" t="n">
-        <v>-5.285967616974625</v>
+        <v>-5.296258167008222</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-3.533882646068201</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.71777086481802</v>
+        <v>-11.73959573365518</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.272928042231593</v>
+        <v>-1.218437877804329</v>
       </c>
       <c r="G55" t="n">
-        <v>-5.766271839026188</v>
+        <v>-5.77266088281295</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-3.709007880609239</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.2944574370365</v>
+        <v>-11.31761772076351</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.287761621351268</v>
+        <v>-1.229553242916954</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.899525297349276</v>
+        <v>-5.905141895268376</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-3.863049729052799</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.52123912350699</v>
+        <v>-10.54111323922073</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.276659348541485</v>
+        <v>-1.217927277993501</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.354692297944724</v>
+        <v>-6.364131848293609</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-3.987849338081304</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.04634202252907</v>
+        <v>-10.08366817793083</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.479917350159282</v>
+        <v>-1.415398481755256</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.1968907717934</v>
+        <v>-6.214827226686564</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-4.080600366914669</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.481867385508046</v>
+        <v>-9.506415453336283</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.468592508201189</v>
+        <v>-1.406377885097306</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.420742965781232</v>
+        <v>-6.441795388750728</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-4.140729507196696</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.191768139141081</v>
+        <v>-9.221618589620215</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.546282233263991</v>
+        <v>-1.488152408646727</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.300896025568072</v>
+        <v>-6.328717169106739</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-4.168312713022342</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.555573867153084</v>
+        <v>-8.602745434291824</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.631617863186362</v>
+        <v>-1.563734272952012</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.715738733411004</v>
+        <v>-6.725060453034313</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-4.16606661782915</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.981554941360447</v>
+        <v>-8.031292599856165</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.54604657181284</v>
+        <v>-1.486057640192051</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.58039050663324</v>
+        <v>-6.596520223734246</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-4.139120292924559</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.52010363540097</v>
+        <v>-7.565547018564601</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.53876725143284</v>
+        <v>-1.467257093311332</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.644804636614532</v>
+        <v>-6.666760428480107</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-4.089974632950742</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.098570760805916</v>
+        <v>-7.160012938042136</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.679784445341072</v>
+        <v>-1.611468809112945</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.822192247817078</v>
+        <v>-6.84002396428751</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-4.019350794634104</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.669627642802444</v>
+        <v>-6.72913215921809</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.563079657809926</v>
+        <v>-1.49825966644054</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.005144087727358</v>
+        <v>-7.005222641544409</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-3.930756397288131</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.430981146603462</v>
+        <v>-6.483939511598244</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.720671707115782</v>
+        <v>-1.660067437261432</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.034418476881458</v>
+        <v>-7.041239566661997</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-3.825986909476182</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.293773812822173</v>
+        <v>-6.355661128355012</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.711467818218049</v>
+        <v>-1.65140033278021</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.087088811213722</v>
+        <v>-7.100639344654908</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-3.704576453861355</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.018298668729415</v>
+        <v>-6.081285737700958</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.636985707351469</v>
+        <v>-1.592524246900967</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.047091826032249</v>
+        <v>-7.050535101679623</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-3.567817029626307</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.921258520066541</v>
+        <v>-5.989233756420782</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.920250771635055</v>
+        <v>-1.868392160078977</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.083684812474873</v>
+        <v>-7.081315105660521</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-3.417316863697098</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.816271343578739</v>
+        <v>-5.893332638105139</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.867292406640273</v>
+        <v>-1.820291039438476</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.822310078542654</v>
+        <v>-6.824457216208697</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-3.253578593650613</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.552094856838391</v>
+        <v>-5.634471626318532</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.880214509545056</v>
+        <v>-1.836054172059914</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.730258097262478</v>
+        <v>-6.725178283759888</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-3.076524220222002</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.63719482530961</v>
+        <v>-5.731367759650146</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.961203494923974</v>
+        <v>-1.917396649615558</v>
       </c>
       <c r="G72" t="n">
-        <v>-6.549793794892126</v>
+        <v>-6.537814337791946</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-2.88649721221217</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.708848998762377</v>
+        <v>-5.803388517582481</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.048502970272603</v>
+        <v>-2.005350740106274</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.382526533786233</v>
+        <v>-6.372942968106091</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-2.681665328752654</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.912617600191002</v>
+        <v>-6.002574813016501</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.909606729424731</v>
+        <v>-1.86674252992092</v>
       </c>
       <c r="G74" t="n">
-        <v>-6.286769430801849</v>
+        <v>-6.261278717169009</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-2.457901846344185</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.06180439107247</v>
+        <v>-6.159486062574588</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.16324391237749</v>
+        <v>-2.132071139311341</v>
       </c>
       <c r="G75" t="n">
-        <v>-6.141405592350165</v>
+        <v>-6.118415508560094</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-2.213016895261603</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.540092398486407</v>
+        <v>-6.63909639257554</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.149601732816412</v>
+        <v>-2.108046763596773</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.909252878360678</v>
+        <v>-5.877831351540536</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-1.942890947947188</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.009307440031027</v>
+        <v>-7.094328854685196</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.200308221722417</v>
+        <v>-2.162000143607526</v>
       </c>
       <c r="G77" t="n">
-        <v>-5.962250520263986</v>
+        <v>-5.936864545053878</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-1.64177926384557</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.493683368266367</v>
+        <v>-7.579922367084817</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.153372316034829</v>
+        <v>-2.109644024543464</v>
       </c>
       <c r="G78" t="n">
-        <v>-5.591699072934612</v>
+        <v>-5.563458975705009</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-1.306513051183944</v>
       </c>
       <c r="E79" t="n">
-        <v>-7.893221174087321</v>
+        <v>-7.97216776022293</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.181769520898533</v>
+        <v>-2.151264455277311</v>
       </c>
       <c r="G79" t="n">
-        <v>-5.430493548044439</v>
+        <v>-5.402214173906311</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.9366196983758321</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.268603681165292</v>
+        <v>-8.354292803264388</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.449533298617514</v>
+        <v>-2.415231465172192</v>
       </c>
       <c r="G80" t="n">
-        <v>-5.035655878943665</v>
+        <v>-5.010479380579025</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.5338508501757626</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.178728205510721</v>
+        <v>-9.255318177134818</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.375876002829963</v>
+        <v>-2.338235632160001</v>
       </c>
       <c r="G81" t="n">
-        <v>-5.033836048848665</v>
+        <v>-5.000306661271004</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.1008904220142637</v>
       </c>
       <c r="E82" t="n">
-        <v>-9.918312393039827</v>
+        <v>-9.983708445734248</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.466042692500931</v>
+        <v>-2.427407306814997</v>
       </c>
       <c r="G82" t="n">
-        <v>-4.863793219540327</v>
+        <v>-4.830735154864968</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.3544259594233527</v>
       </c>
       <c r="E83" t="n">
-        <v>-10.67533552795411</v>
+        <v>-10.7350102443067</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.523701194215892</v>
+        <v>-2.504010370741936</v>
       </c>
       <c r="G83" t="n">
-        <v>-4.538999370642786</v>
+        <v>-4.503322845399083</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.8212055391461924</v>
       </c>
       <c r="E84" t="n">
-        <v>-11.81355415240809</v>
+        <v>-11.87722202112741</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.608853531898479</v>
+        <v>-2.581084757571178</v>
       </c>
       <c r="G84" t="n">
-        <v>-4.434692993902755</v>
+        <v>-4.396437284999231</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>1.287940891482892</v>
       </c>
       <c r="E85" t="n">
-        <v>-12.62899514260216</v>
+        <v>-12.68944230482241</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.751625094387502</v>
+        <v>-2.724013427694301</v>
       </c>
       <c r="G85" t="n">
-        <v>-4.072389697363669</v>
+        <v>-4.029119636471765</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>1.73858134780847</v>
       </c>
       <c r="E86" t="n">
-        <v>-13.6592022686119</v>
+        <v>-13.72546241329387</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.847028705195159</v>
+        <v>-2.821027391751492</v>
       </c>
       <c r="G86" t="n">
-        <v>-3.749585878498071</v>
+        <v>-3.719264105116634</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>2.156261718040168</v>
       </c>
       <c r="E87" t="n">
-        <v>-14.65763437562477</v>
+        <v>-14.72221870554301</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.880165323687568</v>
+        <v>-2.85704431686908</v>
       </c>
       <c r="G87" t="n">
-        <v>-3.302981243961112</v>
+        <v>-3.265131396445681</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>2.526654721107356</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.02792716025119</v>
+        <v>-16.07803140322647</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.790679433764371</v>
+        <v>-2.756272861896314</v>
       </c>
       <c r="G88" t="n">
-        <v>-3.052316013753424</v>
+        <v>-3.015526642768174</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>2.835650970439239</v>
       </c>
       <c r="E89" t="n">
-        <v>-17.44777431113354</v>
+        <v>-17.50706935070372</v>
       </c>
       <c r="F89" t="n">
-        <v>-3.024809085482958</v>
+        <v>-3.002172493869613</v>
       </c>
       <c r="G89" t="n">
-        <v>-2.780192499188148</v>
+        <v>-2.751166863788041</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>3.071420386498601</v>
       </c>
       <c r="E90" t="n">
-        <v>-18.91923131981797</v>
+        <v>-18.97605191415106</v>
       </c>
       <c r="F90" t="n">
-        <v>-3.224257226973813</v>
+        <v>-3.197470375359641</v>
       </c>
       <c r="G90" t="n">
-        <v>-2.651586808373873</v>
+        <v>-2.629788124142399</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>3.22532684971123</v>
       </c>
       <c r="E91" t="n">
-        <v>-20.55119996134197</v>
+        <v>-20.59588399094078</v>
       </c>
       <c r="F91" t="n">
-        <v>-3.437923609350782</v>
+        <v>-3.402247084107079</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.707648049142144</v>
+        <v>-2.695982807310166</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>3.292018123577934</v>
       </c>
       <c r="E92" t="n">
-        <v>-22.02596932264536</v>
+        <v>-22.07462032000521</v>
       </c>
       <c r="F92" t="n">
-        <v>-3.441720377174883</v>
+        <v>-3.424006491430027</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.60180987296963</v>
+        <v>-2.580731265394451</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>3.270050797313799</v>
       </c>
       <c r="E93" t="n">
-        <v>-24.01736095408326</v>
+        <v>-24.0668236742193</v>
       </c>
       <c r="F93" t="n">
-        <v>-3.664145510152967</v>
+        <v>-3.621333679860522</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.571147699714308</v>
+        <v>-2.554310998259848</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>3.162702955337735</v>
       </c>
       <c r="E94" t="n">
-        <v>-26.18912524177162</v>
+        <v>-26.2337045329477</v>
       </c>
       <c r="F94" t="n">
-        <v>-3.467368198441824</v>
+        <v>-3.429007751115567</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.730651225235056</v>
+        <v>-2.708263387375705</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>2.980288667429548</v>
       </c>
       <c r="E95" t="n">
-        <v>-28.36314140554876</v>
+        <v>-28.41007731123635</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.973686826239896</v>
+        <v>-3.926345059164215</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.945600653290515</v>
+        <v>-2.935833795370587</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>2.73628310140447</v>
       </c>
       <c r="E96" t="n">
-        <v>-30.40235921926749</v>
+        <v>-30.46082944375864</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.95475535633076</v>
+        <v>-3.907282666226662</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.279205622000537</v>
+        <v>-3.269386394869243</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>2.451691182005299</v>
       </c>
       <c r="E97" t="n">
-        <v>-32.6663849650815</v>
+        <v>-32.73238326370664</v>
       </c>
       <c r="F97" t="n">
-        <v>-4.10569651579302</v>
+        <v>-4.068383452694101</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.363428406181361</v>
+        <v>-3.352928379302297</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>2.143444124844094</v>
       </c>
       <c r="E98" t="n">
-        <v>-35.17166257535999</v>
+        <v>-35.22934726168063</v>
       </c>
       <c r="F98" t="n">
-        <v>-4.38808439578621</v>
+        <v>-4.341227043915672</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.784097188788861</v>
+        <v>-3.781478728220516</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>1.841682212746486</v>
       </c>
       <c r="E99" t="n">
-        <v>-37.57351099318884</v>
+        <v>-37.62801424991895</v>
       </c>
       <c r="F99" t="n">
-        <v>-4.239656958469562</v>
+        <v>-4.203404371900822</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.180898703315894</v>
+        <v>-4.167387446783233</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>1.557182024984744</v>
       </c>
       <c r="E100" t="n">
-        <v>-40.19730012879064</v>
+        <v>-40.24833392526769</v>
       </c>
       <c r="F100" t="n">
-        <v>-4.361035698115204</v>
+        <v>-4.321117266750781</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.431655579643474</v>
+        <v>-4.417934846265346</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>1.3254872905758</v>
       </c>
       <c r="E101" t="n">
-        <v>-42.63889677804698</v>
+        <v>-42.68669677572212</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.516218763698183</v>
+        <v>-4.476234870819551</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.945279712427229</v>
+        <v>-4.924214197154893</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>1.133449805579506</v>
       </c>
       <c r="E102" t="n">
-        <v>-45.00300008678313</v>
+        <v>-45.05605009789781</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.604133577280374</v>
+        <v>-4.566912160301346</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.144832592340818</v>
+        <v>-5.136977210635782</v>
       </c>
     </row>
   </sheetData>
